--- a/output/CodeSystem-cs-fake.xlsx
+++ b/output/CodeSystem-cs-fake.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,19 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - [Some] Work Group</t>
+    <t>Nils Haendly</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
-  </si>
-  <si>
-    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -272,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -374,73 +368,65 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B20" t="s" s="2">
-        <v>32</v>
-      </c>
+      <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -457,27 +443,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s" s="1">
         <v>35</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>36</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="D2" s="2"/>
     </row>

--- a/output/CodeSystem-cs-fake.xlsx
+++ b/output/CodeSystem-cs-fake.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,19 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Nils Haendly</t>
+    <t>HL7 International - [Some] Work Group</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -266,7 +272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -368,65 +374,73 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -443,27 +457,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2"/>
     </row>
